--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-mp_loss.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.864609122276306</v>
+        <v>2.702781200408936</v>
       </c>
       <c r="B2" t="n">
-        <v>2.580862522125244</v>
+        <v>2.687318801879883</v>
       </c>
       <c r="C2" t="n">
-        <v>4.219507217407227</v>
+        <v>1.233067870140076</v>
       </c>
       <c r="D2" t="n">
-        <v>3.773187637329102</v>
+        <v>3.027697801589966</v>
       </c>
       <c r="E2" t="n">
-        <v>2.213778972625732</v>
+        <v>2.273258447647095</v>
       </c>
       <c r="F2" t="n">
-        <v>2.648216247558594</v>
+        <v>1.129271626472473</v>
       </c>
       <c r="G2" t="n">
-        <v>1.575892925262451</v>
+        <v>1.551854014396667</v>
       </c>
       <c r="H2" t="n">
-        <v>1.082253694534302</v>
+        <v>1.769975185394287</v>
       </c>
       <c r="I2" t="n">
-        <v>2.147420644760132</v>
+        <v>3.044688940048218</v>
       </c>
       <c r="J2" t="n">
-        <v>3.116798162460327</v>
+        <v>3.956023216247559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.482856035232544</v>
+        <v>2.868610858917236</v>
       </c>
       <c r="B3" t="n">
-        <v>2.203175067901611</v>
+        <v>3.053080797195435</v>
       </c>
       <c r="C3" t="n">
-        <v>3.992812156677246</v>
+        <v>2.156548500061035</v>
       </c>
       <c r="D3" t="n">
-        <v>3.543798446655273</v>
+        <v>4.186046123504639</v>
       </c>
       <c r="E3" t="n">
-        <v>1.237780332565308</v>
+        <v>1.20674729347229</v>
       </c>
       <c r="F3" t="n">
-        <v>4.662570953369141</v>
+        <v>3.695636034011841</v>
       </c>
       <c r="G3" t="n">
-        <v>2.226790904998779</v>
+        <v>1.345697522163391</v>
       </c>
       <c r="H3" t="n">
-        <v>1.672353267669678</v>
+        <v>1.37147068977356</v>
       </c>
       <c r="I3" t="n">
-        <v>1.665795803070068</v>
+        <v>3.537542581558228</v>
       </c>
       <c r="J3" t="n">
-        <v>2.922622203826904</v>
+        <v>1.646484375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.898990631103516</v>
+        <v>4.39885139465332</v>
       </c>
       <c r="B4" t="n">
-        <v>2.394397020339966</v>
+        <v>2.516356945037842</v>
       </c>
       <c r="C4" t="n">
-        <v>1.246562838554382</v>
+        <v>1.077078223228455</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393197178840637</v>
+        <v>3.283294916152954</v>
       </c>
       <c r="E4" t="n">
-        <v>4.287340641021729</v>
+        <v>3.193863391876221</v>
       </c>
       <c r="F4" t="n">
-        <v>1.78811502456665</v>
+        <v>1.308133125305176</v>
       </c>
       <c r="G4" t="n">
-        <v>3.401456117630005</v>
+        <v>2.073054790496826</v>
       </c>
       <c r="H4" t="n">
-        <v>4.827571868896484</v>
+        <v>1.486054539680481</v>
       </c>
       <c r="I4" t="n">
-        <v>2.176432609558105</v>
+        <v>1.692371249198914</v>
       </c>
       <c r="J4" t="n">
-        <v>1.934492111206055</v>
+        <v>4.330550193786621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.371668815612793</v>
+        <v>2.13756275177002</v>
       </c>
       <c r="B5" t="n">
-        <v>1.191439270973206</v>
+        <v>1.291419267654419</v>
       </c>
       <c r="C5" t="n">
-        <v>2.750319004058838</v>
+        <v>4.629528999328613</v>
       </c>
       <c r="D5" t="n">
-        <v>1.468984961509705</v>
+        <v>1.201010942459106</v>
       </c>
       <c r="E5" t="n">
-        <v>3.068353652954102</v>
+        <v>4.412272453308105</v>
       </c>
       <c r="F5" t="n">
-        <v>1.539018511772156</v>
+        <v>2.967981815338135</v>
       </c>
       <c r="G5" t="n">
-        <v>2.509292364120483</v>
+        <v>4.10798454284668</v>
       </c>
       <c r="H5" t="n">
-        <v>4.244817733764648</v>
+        <v>4.283915519714355</v>
       </c>
       <c r="I5" t="n">
-        <v>2.128111600875854</v>
+        <v>2.512665987014771</v>
       </c>
       <c r="J5" t="n">
-        <v>1.905091524124146</v>
+        <v>2.766873359680176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.851427555084229</v>
+        <v>1.34955108165741</v>
       </c>
       <c r="B6" t="n">
-        <v>4.331591606140137</v>
+        <v>2.050817728042603</v>
       </c>
       <c r="C6" t="n">
-        <v>3.574450731277466</v>
+        <v>4.357041358947754</v>
       </c>
       <c r="D6" t="n">
-        <v>3.073413372039795</v>
+        <v>2.235579967498779</v>
       </c>
       <c r="E6" t="n">
-        <v>4.573046684265137</v>
+        <v>4.068232536315918</v>
       </c>
       <c r="F6" t="n">
-        <v>1.811066865921021</v>
+        <v>3.976462125778198</v>
       </c>
       <c r="G6" t="n">
-        <v>4.66547155380249</v>
+        <v>4.519142150878906</v>
       </c>
       <c r="H6" t="n">
-        <v>3.962571144104004</v>
+        <v>1.319252014160156</v>
       </c>
       <c r="I6" t="n">
-        <v>4.851357460021973</v>
+        <v>4.141266822814941</v>
       </c>
       <c r="J6" t="n">
-        <v>3.591923952102661</v>
+        <v>2.089359521865845</v>
       </c>
     </row>
   </sheetData>
